--- a/Project Development Phase/Acceptance testing/Testcases Report.xlsx
+++ b/Project Development Phase/Acceptance testing/Testcases Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1B516-BE66-4346-8106-282189140CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69624C4-4D21-4656-AD39-A822CB62857B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <t>Aswanth,Yokesh,Sunilkumar</t>
   </si>
   <si>
-    <t>file:///C:/Users/YOKESH/Desktop/Final%20Deliverables%201/Yokesh.html.html</t>
+    <t>file:///C:/Users/YOKESH/Desktop/Final%20Deliverables%201/Yokesh.html</t>
   </si>
 </sst>
 </file>
@@ -2172,9 +2172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" activeCellId="1" sqref="G6 H8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2761,7 +2761,7 @@
     <mergeCell ref="G1:N4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{7B0CA93E-78AE-4DB9-A74F-21C5ABF0A104}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
